--- a/playOnMatch/docs/excel/cronogramaOrcamento.xlsx
+++ b/playOnMatch/docs/excel/cronogramaOrcamento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE\Desktop\tcc\playOnMatch\docs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\des\Desktop\tcc\playOnMatch\docs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>SERVIÇO</t>
   </si>
@@ -57,91 +57,67 @@
     <t>CRUD PARTIDAS</t>
   </si>
   <si>
-    <t>CRUD EVENTOS/CAMPEONATOS</t>
-  </si>
-  <si>
-    <t>FAVORITAR LUGARES (ADD NOTAS)</t>
-  </si>
-  <si>
-    <t>FAVORITAR ESPORTES</t>
-  </si>
-  <si>
-    <t>TOP LUGARES (COM MAIS NOTA)</t>
-  </si>
-  <si>
-    <t>TOP PLAYERS (COM MELHORES STATS)</t>
-  </si>
-  <si>
-    <t>CHAT (DO EVENTO)</t>
-  </si>
-  <si>
-    <t>RAKINGS</t>
-  </si>
-  <si>
     <t>SISTEMA DE NOTIFICAÇÃO</t>
   </si>
   <si>
+    <t>TELA DE LOGIN</t>
+  </si>
+  <si>
+    <t>TELA DE PERFIL</t>
+  </si>
+  <si>
+    <t>TELA DE INICIO</t>
+  </si>
+  <si>
+    <t>TELA DE PARTIDA</t>
+  </si>
+  <si>
+    <t>MOBILE:</t>
+  </si>
+  <si>
+    <t>SERVIÇOS</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>HORA</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>BACKEND</t>
+  </si>
+  <si>
+    <t>FRONTEND</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>CRIPTOGRAFIA</t>
+  </si>
+  <si>
+    <t>TESTE</t>
+  </si>
+  <si>
+    <t>IMPLANTAÇÃO</t>
+  </si>
+  <si>
+    <t>VALOR POR PESSOA:</t>
+  </si>
+  <si>
+    <t>CRUD EVENTOS</t>
+  </si>
+  <si>
     <t>FRONTEND:</t>
   </si>
   <si>
-    <t>TELA DE LOGIN</t>
-  </si>
-  <si>
-    <t>TELA DE PERFIL</t>
-  </si>
-  <si>
-    <t>TELA DE INICIO</t>
-  </si>
-  <si>
-    <t>TELA DE PARTIDA</t>
-  </si>
-  <si>
-    <t>TELA DE RAKING</t>
-  </si>
-  <si>
-    <t>TELA DE RALATÓRIOS</t>
-  </si>
-  <si>
-    <t>TELA DE CHAT</t>
-  </si>
-  <si>
-    <t>:)</t>
-  </si>
-  <si>
-    <t>MOBILE:</t>
-  </si>
-  <si>
-    <t>SERVIÇOS</t>
-  </si>
-  <si>
-    <t>VALOR</t>
-  </si>
-  <si>
-    <t>HORA</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>BACKEND</t>
-  </si>
-  <si>
-    <t>FRONTEND</t>
-  </si>
-  <si>
-    <t>MOBILE</t>
-  </si>
-  <si>
-    <t>CRIPTOGRAFIA</t>
-  </si>
-  <si>
-    <t>TESTE</t>
-  </si>
-  <si>
-    <t>IMPLANTAÇÃO</t>
-  </si>
-  <si>
-    <t>VALOR POR PESSOA:</t>
+    <t>TELA CREATE PARTIDA</t>
+  </si>
+  <si>
+    <t>TELA CREATE LOCAL</t>
   </si>
 </sst>
 </file>
@@ -167,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,14 +186,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -238,19 +208,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -411,19 +368,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -484,30 +428,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -656,102 +576,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,58 +677,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL37"/>
+  <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,24 +1021,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="9"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -1150,46 +1064,46 @@
       <c r="AK1" s="4"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <v>45019</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>45020</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <v>45021</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <v>45022</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>45023</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="20">
         <v>45024</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="20">
         <v>45025</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="20">
         <v>45026</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="20">
         <v>45027</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="20">
         <v>45028</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="20">
         <v>45029</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="20">
         <v>45030</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="21">
         <v>45031</v>
       </c>
       <c r="O2" s="10"/>
@@ -1217,7 +1131,7 @@
       <c r="AK2" s="4"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8"/>
@@ -1232,7 +1146,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="13"/>
+      <c r="N3" s="11"/>
       <c r="O3" s="10"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1259,7 +1173,7 @@
       <c r="AL3" s="5"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6"/>
@@ -1274,7 +1188,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="13"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="10"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1300,25 +1214,25 @@
       <c r="AK4" s="4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="6"/>
@@ -1333,10 +1247,10 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="13"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6"/>
@@ -1351,10 +1265,10 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="13"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6"/>
@@ -1369,330 +1283,330 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="13"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="18"/>
+      <c r="A9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="23">
         <v>45032</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="23">
         <v>45033</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="23">
         <v>45034</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="23">
         <v>45035</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="23">
         <v>45036</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="23">
         <v>45037</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="23">
         <v>45038</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="23">
         <v>45039</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="23">
         <v>45040</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="23">
         <v>45041</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="23">
         <v>45042</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="23">
         <v>45043</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="24">
         <v>45044</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="8"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="13"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="13"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="13"/>
+      <c r="A14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="20">
+        <v>45045</v>
+      </c>
+      <c r="C14" s="20">
+        <v>45046</v>
+      </c>
+      <c r="D14" s="20">
+        <v>45047</v>
+      </c>
+      <c r="E14" s="20">
+        <v>45048</v>
+      </c>
+      <c r="F14" s="20">
+        <v>45049</v>
+      </c>
+      <c r="G14" s="20">
+        <v>45050</v>
+      </c>
+      <c r="H14" s="20">
+        <v>45051</v>
+      </c>
+      <c r="I14" s="20">
+        <v>45052</v>
+      </c>
+      <c r="J14" s="20">
+        <v>45053</v>
+      </c>
+      <c r="K14" s="20">
+        <v>45054</v>
+      </c>
+      <c r="L14" s="20">
+        <v>45055</v>
+      </c>
+      <c r="M14" s="20">
+        <v>45056</v>
+      </c>
+      <c r="N14" s="20">
+        <v>45057</v>
+      </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="29"/>
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="22">
-        <v>45045</v>
-      </c>
-      <c r="C16" s="22">
-        <v>45046</v>
-      </c>
-      <c r="D16" s="22">
-        <v>45047</v>
-      </c>
-      <c r="E16" s="22">
-        <v>45048</v>
-      </c>
-      <c r="F16" s="22">
-        <v>45049</v>
-      </c>
-      <c r="G16" s="22">
-        <v>45050</v>
-      </c>
-      <c r="H16" s="22">
-        <v>45051</v>
-      </c>
-      <c r="I16" s="22">
-        <v>45052</v>
-      </c>
-      <c r="J16" s="22">
-        <v>45053</v>
-      </c>
-      <c r="K16" s="22">
-        <v>45054</v>
-      </c>
-      <c r="L16" s="22">
-        <v>45055</v>
-      </c>
-      <c r="M16" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="B18" s="20">
+        <v>45058</v>
+      </c>
+      <c r="C18" s="20">
+        <v>45057</v>
+      </c>
+      <c r="D18" s="20">
+        <v>45058</v>
+      </c>
+      <c r="E18" s="20">
+        <v>45059</v>
+      </c>
+      <c r="F18" s="20">
+        <v>45060</v>
+      </c>
+      <c r="G18" s="20">
+        <v>45061</v>
+      </c>
+      <c r="H18" s="20">
+        <v>45062</v>
+      </c>
+      <c r="I18" s="20">
+        <v>45063</v>
+      </c>
+      <c r="J18" s="20">
+        <v>45064</v>
+      </c>
+      <c r="K18" s="20">
+        <v>45065</v>
+      </c>
+      <c r="L18" s="20">
+        <v>45066</v>
+      </c>
+      <c r="M18" s="20">
+        <v>45067</v>
+      </c>
+      <c r="N18" s="20">
+        <v>45068</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41"/>
+      <c r="A20" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="22">
-        <v>45056</v>
-      </c>
-      <c r="C21" s="22">
-        <v>45057</v>
-      </c>
-      <c r="D21" s="22">
-        <v>45058</v>
-      </c>
-      <c r="E21" s="22">
-        <v>45059</v>
-      </c>
-      <c r="F21" s="22">
-        <v>45060</v>
-      </c>
-      <c r="G21" s="22">
-        <v>45061</v>
-      </c>
-      <c r="H21" s="22">
-        <v>45062</v>
-      </c>
-      <c r="I21" s="22">
-        <v>45063</v>
-      </c>
-      <c r="J21" s="22">
-        <v>45064</v>
-      </c>
-      <c r="K21" s="22">
-        <v>45065</v>
-      </c>
-      <c r="L21" s="22">
-        <v>45066</v>
-      </c>
-      <c r="M21" s="22">
-        <v>45067</v>
-      </c>
-      <c r="N21" s="22">
-        <v>45068</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1701,90 +1615,91 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="B24" s="20">
+        <v>45069</v>
+      </c>
+      <c r="C24" s="20">
+        <v>45070</v>
+      </c>
+      <c r="D24" s="20">
+        <v>45071</v>
+      </c>
+      <c r="E24" s="20">
+        <v>45072</v>
+      </c>
+      <c r="F24" s="20">
+        <v>45073</v>
+      </c>
+      <c r="G24" s="20">
+        <v>45074</v>
+      </c>
+      <c r="H24" s="20">
+        <v>45075</v>
+      </c>
+      <c r="I24" s="20">
+        <v>45076</v>
+      </c>
+      <c r="J24" s="20">
+        <v>45077</v>
+      </c>
+      <c r="K24" s="20">
+        <v>45078</v>
+      </c>
+      <c r="L24" s="20">
+        <v>45079</v>
+      </c>
+      <c r="M24" s="20">
+        <v>45080</v>
+      </c>
+      <c r="N24" s="20">
+        <v>45081</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="22">
-        <v>45069</v>
-      </c>
-      <c r="C25" s="22">
-        <v>45070</v>
-      </c>
-      <c r="D25" s="22">
-        <v>45071</v>
-      </c>
-      <c r="E25" s="22">
-        <v>45072</v>
-      </c>
-      <c r="F25" s="22">
-        <v>45073</v>
-      </c>
-      <c r="G25" s="22">
-        <v>45074</v>
-      </c>
-      <c r="H25" s="22">
-        <v>45075</v>
-      </c>
-      <c r="I25" s="22">
-        <v>45076</v>
-      </c>
-      <c r="J25" s="22">
-        <v>45077</v>
-      </c>
-      <c r="K25" s="22">
-        <v>45078</v>
-      </c>
-      <c r="L25" s="22">
-        <v>45079</v>
-      </c>
-      <c r="M25" s="22">
-        <v>45080</v>
-      </c>
-      <c r="N25" s="22">
-        <v>45081</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1793,213 +1708,13 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="41"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B20:N20"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B30:N30"/>
+    <mergeCell ref="B13:N13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2029,160 +1744,160 @@
   <sheetData>
     <row r="10" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>31</v>
+      <c r="I11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="41">
         <v>15</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="31">
         <v>12</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="37">
         <f>PRODUCT(J12:K12)</f>
         <v>180</v>
       </c>
     </row>
     <row r="13" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="42">
         <v>20</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="32">
         <v>8</v>
       </c>
-      <c r="L13" s="47">
+      <c r="L13" s="38">
         <f t="shared" ref="L13:L19" si="0">PRODUCT(J13:K13)</f>
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I14" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="51">
+      <c r="I14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="42">
         <v>25</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="32">
         <v>100</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="38">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
     </row>
     <row r="15" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I15" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="51">
+      <c r="I15" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="42">
         <v>25</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="32">
         <v>80</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="38">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="16" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I16" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="51">
+      <c r="I16" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="42">
         <v>20</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="32">
         <v>50</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="38">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="51">
+      <c r="I17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="42">
         <v>10</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="32">
         <v>4</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="38">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I18" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="51">
+      <c r="I18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="42">
         <v>10</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="32">
         <v>12</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="38">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="52">
+      <c r="I19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="43">
         <v>5</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="32">
         <v>4</v>
       </c>
-      <c r="L19" s="47">
+      <c r="L19" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="38">
+      <c r="I20" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="33">
         <f>SUM(K12:K19)</f>
         <v>270</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="39">
         <f>PRODUCT(2,SUM(L12:L19))</f>
         <v>12040</v>
       </c>
     </row>
     <row r="21" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="49">
+      <c r="I21" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="40">
         <f>L20/2</f>
         <v>6020</v>
       </c>
